--- a/Project 2 Documentation.xlsx
+++ b/Project 2 Documentation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Vengeance\Documents\Revature\Projects\Project 2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5414F773-91D7-4645-A173-163193531753}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54DF61A2-EECC-4349-9EFE-D2F60E973CE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="480" windowWidth="29040" windowHeight="15840" xr2:uid="{229D6233-47AD-4047-B7D9-0B880510F22D}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="425" uniqueCount="196">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="387" uniqueCount="195">
   <si>
     <t>Objects</t>
   </si>
@@ -346,18 +346,6 @@
     <t>Junction object.</t>
   </si>
   <si>
-    <t>Premium Month To Month</t>
-  </si>
-  <si>
-    <t>Paid Month To Month</t>
-  </si>
-  <si>
-    <t>Premium 1 Year Subscription</t>
-  </si>
-  <si>
-    <t>Paid 1 Year Subscription</t>
-  </si>
-  <si>
     <t>Part of the data model only.</t>
   </si>
   <si>
@@ -403,24 +391,12 @@
     <t>Products</t>
   </si>
   <si>
-    <t>Family Premium</t>
-  </si>
-  <si>
-    <t>Family Free</t>
-  </si>
-  <si>
-    <t>Family Pay</t>
-  </si>
-  <si>
     <t>Password</t>
   </si>
   <si>
     <t>Hiearchy Security</t>
   </si>
   <si>
-    <t>Manager</t>
-  </si>
-  <si>
     <t>Employee</t>
   </si>
   <si>
@@ -496,9 +472,6 @@
     <t>Change Tier Date</t>
   </si>
   <si>
-    <t>Product Family</t>
-  </si>
-  <si>
     <t>AccountID</t>
   </si>
   <si>
@@ -626,12 +599,39 @@
   </si>
   <si>
     <t>Streaming_Content__c</t>
+  </si>
+  <si>
+    <t>Product Name</t>
+  </si>
+  <si>
+    <t>Premium</t>
+  </si>
+  <si>
+    <t>Pay</t>
+  </si>
+  <si>
+    <t>Price</t>
+  </si>
+  <si>
+    <t>Pay (Month to Month)</t>
+  </si>
+  <si>
+    <t>Premium (Month to Month)</t>
+  </si>
+  <si>
+    <t>Premium (1 Year Subscription)</t>
+  </si>
+  <si>
+    <t>Pay (1 Year Subscription)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="6" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
+  </numFmts>
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -703,12 +703,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF00B0F0"/>
+        <fgColor rgb="FFFF7171"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="55">
+  <borders count="53">
     <border>
       <left/>
       <right/>
@@ -1207,19 +1207,6 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
       <right style="medium">
         <color indexed="64"/>
       </right>
@@ -1324,17 +1311,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right style="medium">
         <color indexed="64"/>
@@ -1392,7 +1368,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="129">
+  <cellXfs count="146">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -1401,30 +1377,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1437,10 +1405,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1459,7 +1424,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1472,19 +1437,13 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1492,33 +1451,10 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1593,9 +1529,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
@@ -1606,7 +1539,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
@@ -1615,6 +1548,92 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="6" fontId="1" fillId="3" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="6" fontId="1" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="6" fontId="1" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="22" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="24" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="22" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="24" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="6" fontId="1" fillId="4" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="22" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="6" fontId="1" fillId="4" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1622,6 +1641,12 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFFFDB69"/>
+      <color rgb="FFFF7171"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1985,853 +2010,874 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8C6CD34-26F3-4AA8-BB62-9E6EE72C57C3}">
-  <dimension ref="B1:G53"/>
+  <dimension ref="B1:K54"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" zoomScale="70" zoomScaleNormal="100" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="D56" sqref="D56"/>
+    <sheetView tabSelected="1" view="pageLayout" zoomScale="80" zoomScaleNormal="100" zoomScalePageLayoutView="80" workbookViewId="0">
+      <selection activeCell="O23" sqref="O23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="1.5703125" style="64" customWidth="1"/>
-    <col min="2" max="2" width="28.28515625" style="64" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="32.42578125" style="64" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="39.28515625" style="64" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.7109375" style="86" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.42578125" style="64" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="62.140625" style="64" customWidth="1"/>
-    <col min="8" max="8" width="6.140625" style="64" customWidth="1"/>
-    <col min="9" max="16384" width="9.140625" style="64"/>
+    <col min="1" max="1" width="1.5703125" style="44" customWidth="1"/>
+    <col min="2" max="2" width="28.28515625" style="44" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="32.42578125" style="44" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="39.28515625" style="44" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" style="66" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.42578125" style="44" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="62.140625" style="44" customWidth="1"/>
+    <col min="8" max="8" width="6.140625" style="44" customWidth="1"/>
+    <col min="9" max="16384" width="9.140625" style="44"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="2:7" s="90" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="87" t="s">
+    <row r="2" spans="2:7" s="70" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B2" s="67" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="65" t="s">
+      <c r="C2" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="65" t="s">
+      <c r="D2" s="45" t="s">
         <v>34</v>
       </c>
-      <c r="E2" s="88" t="s">
+      <c r="E2" s="68" t="s">
         <v>67</v>
       </c>
-      <c r="F2" s="65" t="s">
+      <c r="F2" s="45" t="s">
         <v>2</v>
       </c>
-      <c r="G2" s="89" t="s">
+      <c r="G2" s="69" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="3" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B3" s="91" t="s">
+      <c r="B3" s="71" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="66" t="s">
+      <c r="C3" s="46" t="s">
+        <v>144</v>
+      </c>
+      <c r="D3" s="46" t="s">
+        <v>145</v>
+      </c>
+      <c r="E3" s="72" t="s">
+        <v>74</v>
+      </c>
+      <c r="F3" s="46" t="s">
+        <v>27</v>
+      </c>
+      <c r="G3" s="73" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="4" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B4" s="50"/>
+      <c r="C4" s="47" t="s">
+        <v>85</v>
+      </c>
+      <c r="D4" s="47" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="74" t="s">
+        <v>75</v>
+      </c>
+      <c r="F4" s="47" t="s">
+        <v>41</v>
+      </c>
+      <c r="G4" s="52"/>
+    </row>
+    <row r="5" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B5" s="75"/>
+      <c r="C5" s="47" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="47" t="s">
+        <v>146</v>
+      </c>
+      <c r="E5" s="74" t="s">
+        <v>75</v>
+      </c>
+      <c r="F5" s="47" t="s">
+        <v>9</v>
+      </c>
+      <c r="G5" s="52"/>
+    </row>
+    <row r="6" spans="2:7" ht="20.25" x14ac:dyDescent="0.35">
+      <c r="B6" s="75"/>
+      <c r="C6" s="47" t="s">
+        <v>40</v>
+      </c>
+      <c r="D6" s="48" t="s">
+        <v>151</v>
+      </c>
+      <c r="E6" s="74" t="s">
+        <v>75</v>
+      </c>
+      <c r="F6" s="47" t="s">
+        <v>30</v>
+      </c>
+      <c r="G6" s="52" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7" ht="20.25" x14ac:dyDescent="0.35">
+      <c r="B7" s="75"/>
+      <c r="C7" s="47" t="s">
+        <v>117</v>
+      </c>
+      <c r="D7" s="49" t="s">
+        <v>147</v>
+      </c>
+      <c r="E7" s="74" t="s">
+        <v>75</v>
+      </c>
+      <c r="F7" s="47" t="s">
+        <v>90</v>
+      </c>
+      <c r="G7" s="52" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B8" s="75"/>
+      <c r="C8" s="47" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8" s="47" t="s">
         <v>153</v>
       </c>
-      <c r="D3" s="66" t="s">
+      <c r="E8" s="74"/>
+      <c r="F8" s="47" t="s">
+        <v>30</v>
+      </c>
+      <c r="G8" s="52" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="9" spans="2:7" ht="20.25" x14ac:dyDescent="0.35">
+      <c r="B9" s="75"/>
+      <c r="C9" s="47" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9" s="49" t="s">
         <v>154</v>
       </c>
-      <c r="E3" s="92" t="s">
+      <c r="E9" s="74"/>
+      <c r="F9" s="47" t="s">
+        <v>35</v>
+      </c>
+      <c r="G9" s="52" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="10" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B10" s="75"/>
+      <c r="C10" s="47" t="s">
+        <v>88</v>
+      </c>
+      <c r="D10" s="47" t="s">
+        <v>163</v>
+      </c>
+      <c r="E10" s="74" t="s">
+        <v>75</v>
+      </c>
+      <c r="F10" s="47" t="s">
+        <v>41</v>
+      </c>
+      <c r="G10" s="52" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="11" spans="2:7" ht="20.25" x14ac:dyDescent="0.35">
+      <c r="B11" s="75"/>
+      <c r="C11" s="47" t="s">
+        <v>11</v>
+      </c>
+      <c r="D11" s="49" t="s">
+        <v>155</v>
+      </c>
+      <c r="E11" s="74" t="s">
+        <v>75</v>
+      </c>
+      <c r="F11" s="47" t="s">
+        <v>90</v>
+      </c>
+      <c r="G11" s="52" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="12" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B12" s="75"/>
+      <c r="C12" s="47" t="s">
+        <v>12</v>
+      </c>
+      <c r="D12" s="47" t="s">
+        <v>156</v>
+      </c>
+      <c r="E12" s="74" t="s">
+        <v>75</v>
+      </c>
+      <c r="F12" s="47" t="s">
+        <v>30</v>
+      </c>
+      <c r="G12" s="52" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="13" spans="2:7" ht="20.25" x14ac:dyDescent="0.35">
+      <c r="B13" s="75"/>
+      <c r="C13" s="47" t="s">
+        <v>13</v>
+      </c>
+      <c r="D13" s="48" t="s">
+        <v>148</v>
+      </c>
+      <c r="E13" s="74" t="s">
+        <v>75</v>
+      </c>
+      <c r="F13" s="47" t="s">
+        <v>90</v>
+      </c>
+      <c r="G13" s="52" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="14" spans="2:7" ht="20.25" x14ac:dyDescent="0.35">
+      <c r="B14" s="75"/>
+      <c r="C14" s="47" t="s">
+        <v>14</v>
+      </c>
+      <c r="D14" s="48" t="s">
+        <v>157</v>
+      </c>
+      <c r="E14" s="74" t="s">
+        <v>75</v>
+      </c>
+      <c r="F14" s="47" t="s">
+        <v>35</v>
+      </c>
+      <c r="G14" s="52"/>
+    </row>
+    <row r="15" spans="2:7" ht="20.25" x14ac:dyDescent="0.35">
+      <c r="B15" s="75"/>
+      <c r="C15" s="47" t="s">
+        <v>46</v>
+      </c>
+      <c r="D15" s="49" t="s">
+        <v>158</v>
+      </c>
+      <c r="E15" s="74" t="s">
+        <v>75</v>
+      </c>
+      <c r="F15" s="47" t="s">
+        <v>30</v>
+      </c>
+      <c r="G15" s="52" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="16" spans="2:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B16" s="76"/>
+      <c r="C16" s="50" t="s">
+        <v>15</v>
+      </c>
+      <c r="D16" s="50" t="s">
+        <v>62</v>
+      </c>
+      <c r="E16" s="77" t="s">
+        <v>75</v>
+      </c>
+      <c r="F16" s="50" t="s">
+        <v>44</v>
+      </c>
+      <c r="G16" s="78"/>
+    </row>
+    <row r="17" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B17" s="79" t="s">
+        <v>7</v>
+      </c>
+      <c r="C17" s="54" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" s="51" t="s">
+        <v>159</v>
+      </c>
+      <c r="E17" s="80" t="s">
         <v>74</v>
       </c>
-      <c r="F3" s="66" t="s">
+      <c r="F17" s="54" t="s">
         <v>27</v>
       </c>
-      <c r="G3" s="93" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B4" s="70"/>
-      <c r="C4" s="67" t="s">
-        <v>85</v>
-      </c>
-      <c r="D4" s="67" t="s">
+      <c r="G17" s="54" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="18" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B18" s="81"/>
+      <c r="C18" s="47" t="s">
+        <v>92</v>
+      </c>
+      <c r="D18" s="52" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="94" t="s">
+      <c r="E18" s="82"/>
+      <c r="F18" s="47" t="s">
+        <v>41</v>
+      </c>
+      <c r="G18" s="47"/>
+    </row>
+    <row r="19" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B19" s="76"/>
+      <c r="C19" s="47" t="s">
+        <v>52</v>
+      </c>
+      <c r="D19" s="52" t="s">
+        <v>65</v>
+      </c>
+      <c r="E19" s="82"/>
+      <c r="F19" s="47" t="s">
+        <v>54</v>
+      </c>
+      <c r="G19" s="47"/>
+    </row>
+    <row r="20" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B20" s="76"/>
+      <c r="C20" s="47" t="s">
+        <v>53</v>
+      </c>
+      <c r="D20" s="52" t="s">
+        <v>53</v>
+      </c>
+      <c r="E20" s="82"/>
+      <c r="F20" s="47" t="s">
+        <v>56</v>
+      </c>
+      <c r="G20" s="47"/>
+    </row>
+    <row r="21" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B21" s="76"/>
+      <c r="C21" s="47" t="s">
+        <v>16</v>
+      </c>
+      <c r="D21" s="52" t="s">
+        <v>63</v>
+      </c>
+      <c r="E21" s="82"/>
+      <c r="F21" s="47" t="s">
+        <v>35</v>
+      </c>
+      <c r="G21" s="47"/>
+    </row>
+    <row r="22" spans="2:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B22" s="83"/>
+      <c r="C22" s="55" t="s">
+        <v>20</v>
+      </c>
+      <c r="D22" s="53" t="s">
+        <v>64</v>
+      </c>
+      <c r="E22" s="84"/>
+      <c r="F22" s="55" t="s">
+        <v>35</v>
+      </c>
+      <c r="G22" s="55"/>
+    </row>
+    <row r="23" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B23" s="79" t="s">
+        <v>4</v>
+      </c>
+      <c r="C23" s="54" t="s">
+        <v>37</v>
+      </c>
+      <c r="D23" s="54" t="s">
+        <v>76</v>
+      </c>
+      <c r="E23" s="85" t="s">
+        <v>74</v>
+      </c>
+      <c r="F23" s="54" t="s">
+        <v>27</v>
+      </c>
+      <c r="G23" s="51"/>
+    </row>
+    <row r="24" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B24" s="50"/>
+      <c r="C24" s="47" t="s">
+        <v>38</v>
+      </c>
+      <c r="D24" s="47" t="s">
+        <v>160</v>
+      </c>
+      <c r="E24" s="74" t="s">
         <v>75</v>
       </c>
-      <c r="F4" s="67" t="s">
+      <c r="F24" s="47" t="s">
+        <v>30</v>
+      </c>
+      <c r="G24" s="52" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="25" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B25" s="75"/>
+      <c r="C25" s="47" t="s">
+        <v>53</v>
+      </c>
+      <c r="D25" s="47" t="s">
+        <v>53</v>
+      </c>
+      <c r="E25" s="74"/>
+      <c r="F25" s="47" t="s">
+        <v>93</v>
+      </c>
+      <c r="G25" s="52"/>
+    </row>
+    <row r="26" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B26" s="75"/>
+      <c r="C26" s="47" t="s">
+        <v>45</v>
+      </c>
+      <c r="D26" s="47" t="s">
+        <v>45</v>
+      </c>
+      <c r="E26" s="74"/>
+      <c r="F26" s="47" t="s">
+        <v>30</v>
+      </c>
+      <c r="G26" s="52"/>
+      <c r="K26" s="59"/>
+    </row>
+    <row r="27" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B27" s="75"/>
+      <c r="C27" s="47" t="s">
+        <v>36</v>
+      </c>
+      <c r="D27" s="47" t="s">
+        <v>77</v>
+      </c>
+      <c r="E27" s="74"/>
+      <c r="F27" s="47" t="s">
+        <v>54</v>
+      </c>
+      <c r="G27" s="52"/>
+      <c r="K27" s="59"/>
+    </row>
+    <row r="28" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B28" s="75"/>
+      <c r="C28" s="47" t="s">
+        <v>39</v>
+      </c>
+      <c r="D28" s="47" t="s">
+        <v>78</v>
+      </c>
+      <c r="E28" s="74"/>
+      <c r="F28" s="47" t="s">
+        <v>57</v>
+      </c>
+      <c r="G28" s="52"/>
+      <c r="K28" s="59"/>
+    </row>
+    <row r="29" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B29" s="75"/>
+      <c r="C29" s="47" t="s">
+        <v>58</v>
+      </c>
+      <c r="D29" s="47" t="s">
+        <v>79</v>
+      </c>
+      <c r="E29" s="74"/>
+      <c r="F29" s="47" t="s">
+        <v>57</v>
+      </c>
+      <c r="G29" s="52"/>
+      <c r="K29" s="59"/>
+    </row>
+    <row r="30" spans="2:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B30" s="75"/>
+      <c r="C30" s="50" t="s">
+        <v>17</v>
+      </c>
+      <c r="D30" s="50" t="s">
+        <v>149</v>
+      </c>
+      <c r="E30" s="77"/>
+      <c r="F30" s="50" t="s">
+        <v>43</v>
+      </c>
+      <c r="G30" s="78"/>
+      <c r="K30" s="59"/>
+    </row>
+    <row r="31" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B31" s="79" t="s">
+        <v>6</v>
+      </c>
+      <c r="C31" s="54" t="s">
+        <v>187</v>
+      </c>
+      <c r="D31" s="54" t="s">
+        <v>8</v>
+      </c>
+      <c r="E31" s="85" t="s">
+        <v>75</v>
+      </c>
+      <c r="F31" s="54" t="s">
         <v>41</v>
       </c>
-      <c r="G4" s="72"/>
-    </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B5" s="95"/>
-      <c r="C5" s="67" t="s">
-        <v>9</v>
-      </c>
-      <c r="D5" s="67" t="s">
-        <v>155</v>
-      </c>
-      <c r="E5" s="94" t="s">
+      <c r="G31" s="51"/>
+    </row>
+    <row r="32" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B32" s="50" t="s">
+        <v>61</v>
+      </c>
+      <c r="C32" s="46" t="s">
+        <v>26</v>
+      </c>
+      <c r="D32" s="46" t="s">
+        <v>169</v>
+      </c>
+      <c r="E32" s="72" t="s">
         <v>75</v>
       </c>
-      <c r="F5" s="67" t="s">
-        <v>9</v>
-      </c>
-      <c r="G5" s="72"/>
-    </row>
-    <row r="6" spans="2:7" ht="20.25" x14ac:dyDescent="0.35">
-      <c r="B6" s="95"/>
-      <c r="C6" s="67" t="s">
-        <v>40</v>
-      </c>
-      <c r="D6" s="68" t="s">
-        <v>160</v>
-      </c>
-      <c r="E6" s="94" t="s">
+      <c r="F32" s="46" t="s">
+        <v>27</v>
+      </c>
+      <c r="G32" s="73" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="33" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B33" s="76"/>
+      <c r="C33" s="47" t="s">
+        <v>18</v>
+      </c>
+      <c r="D33" s="47" t="s">
+        <v>161</v>
+      </c>
+      <c r="E33" s="74"/>
+      <c r="F33" s="47" t="s">
+        <v>41</v>
+      </c>
+      <c r="G33" s="52" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="34" spans="2:7" ht="20.25" x14ac:dyDescent="0.35">
+      <c r="B34" s="76"/>
+      <c r="C34" s="50" t="s">
+        <v>97</v>
+      </c>
+      <c r="D34" s="106" t="s">
+        <v>150</v>
+      </c>
+      <c r="E34" s="77"/>
+      <c r="F34" s="50" t="s">
+        <v>30</v>
+      </c>
+      <c r="G34" s="78" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="35" spans="2:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B35" s="83"/>
+      <c r="C35" s="55" t="s">
+        <v>19</v>
+      </c>
+      <c r="D35" s="55" t="s">
+        <v>162</v>
+      </c>
+      <c r="E35" s="86"/>
+      <c r="F35" s="55" t="s">
+        <v>98</v>
+      </c>
+      <c r="G35" s="53" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="36" spans="2:7" ht="20.25" x14ac:dyDescent="0.35">
+      <c r="B36" s="79" t="s">
+        <v>5</v>
+      </c>
+      <c r="C36" s="54" t="s">
+        <v>176</v>
+      </c>
+      <c r="D36" s="49" t="s">
+        <v>8</v>
+      </c>
+      <c r="E36" s="85" t="s">
         <v>75</v>
       </c>
-      <c r="F6" s="67" t="s">
+      <c r="F36" s="54" t="s">
+        <v>27</v>
+      </c>
+      <c r="G36" s="51" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="37" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B37" s="50" t="s">
+        <v>186</v>
+      </c>
+      <c r="C37" s="47" t="s">
+        <v>21</v>
+      </c>
+      <c r="D37" s="47" t="s">
+        <v>164</v>
+      </c>
+      <c r="E37" s="74"/>
+      <c r="F37" s="47" t="s">
+        <v>41</v>
+      </c>
+      <c r="G37" s="52" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="38" spans="2:7" ht="37.5" x14ac:dyDescent="0.3">
+      <c r="B38" s="75"/>
+      <c r="C38" s="56" t="s">
+        <v>22</v>
+      </c>
+      <c r="D38" s="56" t="s">
+        <v>165</v>
+      </c>
+      <c r="E38" s="56"/>
+      <c r="F38" s="56" t="s">
         <v>30</v>
       </c>
-      <c r="G6" s="72" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="7" spans="2:7" ht="20.25" x14ac:dyDescent="0.35">
-      <c r="B7" s="95"/>
-      <c r="C7" s="67" t="s">
-        <v>124</v>
-      </c>
-      <c r="D7" s="69" t="s">
-        <v>156</v>
-      </c>
-      <c r="E7" s="94" t="s">
-        <v>75</v>
-      </c>
-      <c r="F7" s="67" t="s">
-        <v>90</v>
-      </c>
-      <c r="G7" s="72" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B8" s="95"/>
-      <c r="C8" s="67" t="s">
-        <v>10</v>
-      </c>
-      <c r="D8" s="67" t="s">
-        <v>162</v>
-      </c>
-      <c r="E8" s="94"/>
-      <c r="F8" s="67" t="s">
+      <c r="G38" s="87" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="39" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B39" s="75"/>
+      <c r="C39" s="47" t="s">
+        <v>28</v>
+      </c>
+      <c r="D39" s="47" t="s">
+        <v>166</v>
+      </c>
+      <c r="E39" s="74"/>
+      <c r="F39" s="47" t="s">
+        <v>86</v>
+      </c>
+      <c r="G39" s="52" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="40" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B40" s="75"/>
+      <c r="C40" s="47" t="s">
+        <v>23</v>
+      </c>
+      <c r="D40" s="47" t="s">
+        <v>167</v>
+      </c>
+      <c r="E40" s="74"/>
+      <c r="F40" s="47" t="s">
+        <v>99</v>
+      </c>
+      <c r="G40" s="52"/>
+    </row>
+    <row r="41" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B41" s="75"/>
+      <c r="C41" s="47" t="s">
+        <v>24</v>
+      </c>
+      <c r="D41" s="47" t="s">
+        <v>168</v>
+      </c>
+      <c r="E41" s="74"/>
+      <c r="F41" s="47" t="s">
         <v>30</v>
       </c>
-      <c r="G8" s="72" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="9" spans="2:7" ht="20.25" x14ac:dyDescent="0.35">
-      <c r="B9" s="95"/>
-      <c r="C9" s="67" t="s">
+      <c r="G41" s="52" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="42" spans="2:7" ht="37.5" x14ac:dyDescent="0.3">
+      <c r="B42" s="75"/>
+      <c r="C42" s="105" t="s">
+        <v>100</v>
+      </c>
+      <c r="D42" s="56" t="s">
+        <v>170</v>
+      </c>
+      <c r="E42" s="88"/>
+      <c r="F42" s="56" t="s">
+        <v>30</v>
+      </c>
+      <c r="G42" s="89" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="43" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B43" s="75"/>
+      <c r="C43" s="47" t="s">
+        <v>42</v>
+      </c>
+      <c r="D43" s="47" t="s">
+        <v>171</v>
+      </c>
+      <c r="E43" s="74"/>
+      <c r="F43" s="47" t="s">
+        <v>30</v>
+      </c>
+      <c r="G43" s="52" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="44" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B44" s="76"/>
+      <c r="C44" s="50" t="s">
+        <v>142</v>
+      </c>
+      <c r="D44" s="50" t="s">
+        <v>177</v>
+      </c>
+      <c r="E44" s="77"/>
+      <c r="F44" s="50" t="s">
+        <v>54</v>
+      </c>
+      <c r="G44" s="78"/>
+    </row>
+    <row r="45" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B45" s="76"/>
+      <c r="C45" s="50" t="s">
+        <v>143</v>
+      </c>
+      <c r="D45" s="50" t="s">
+        <v>172</v>
+      </c>
+      <c r="E45" s="77"/>
+      <c r="F45" s="50" t="s">
+        <v>35</v>
+      </c>
+      <c r="G45" s="78"/>
+    </row>
+    <row r="46" spans="2:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B46" s="76"/>
+      <c r="C46" s="50" t="s">
+        <v>80</v>
+      </c>
+      <c r="D46" s="50" t="s">
+        <v>173</v>
+      </c>
+      <c r="E46" s="77"/>
+      <c r="F46" s="50" t="s">
+        <v>66</v>
+      </c>
+      <c r="G46" s="78"/>
+    </row>
+    <row r="47" spans="2:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B47" s="54" t="s">
+        <v>96</v>
+      </c>
+      <c r="C47" s="137" t="s">
+        <v>178</v>
+      </c>
+      <c r="D47" s="138"/>
+      <c r="E47" s="138"/>
+      <c r="F47" s="138"/>
+      <c r="G47" s="139"/>
+    </row>
+    <row r="48" spans="2:7" ht="20.25" x14ac:dyDescent="0.35">
+      <c r="B48" s="90" t="s">
+        <v>185</v>
+      </c>
+      <c r="C48" s="91" t="s">
+        <v>180</v>
+      </c>
+      <c r="D48" s="92" t="s">
+        <v>8</v>
+      </c>
+      <c r="E48" s="91"/>
+      <c r="F48" s="92" t="s">
+        <v>27</v>
+      </c>
+      <c r="G48" s="93" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="49" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B49" s="75"/>
+      <c r="C49" s="94" t="s">
         <v>16</v>
       </c>
-      <c r="D9" s="69" t="s">
-        <v>163</v>
-      </c>
-      <c r="E9" s="94"/>
-      <c r="F9" s="67" t="s">
+      <c r="D49" s="95" t="s">
+        <v>154</v>
+      </c>
+      <c r="E49" s="94"/>
+      <c r="F49" s="95" t="s">
         <v>35</v>
       </c>
-      <c r="G9" s="72" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B10" s="95"/>
-      <c r="C10" s="67" t="s">
-        <v>88</v>
-      </c>
-      <c r="D10" s="67" t="s">
-        <v>172</v>
-      </c>
-      <c r="E10" s="94" t="s">
-        <v>75</v>
-      </c>
-      <c r="F10" s="67" t="s">
-        <v>41</v>
-      </c>
-      <c r="G10" s="72" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="11" spans="2:7" ht="20.25" x14ac:dyDescent="0.35">
-      <c r="B11" s="95"/>
-      <c r="C11" s="67" t="s">
-        <v>11</v>
-      </c>
-      <c r="D11" s="69" t="s">
-        <v>164</v>
-      </c>
-      <c r="E11" s="94" t="s">
-        <v>75</v>
-      </c>
-      <c r="F11" s="67" t="s">
-        <v>90</v>
-      </c>
-      <c r="G11" s="72" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="12" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B12" s="95"/>
-      <c r="C12" s="67" t="s">
-        <v>12</v>
-      </c>
-      <c r="D12" s="67" t="s">
-        <v>165</v>
-      </c>
-      <c r="E12" s="94" t="s">
-        <v>75</v>
-      </c>
-      <c r="F12" s="67" t="s">
-        <v>30</v>
-      </c>
-      <c r="G12" s="72" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="13" spans="2:7" ht="20.25" x14ac:dyDescent="0.35">
-      <c r="B13" s="95"/>
-      <c r="C13" s="67" t="s">
-        <v>13</v>
-      </c>
-      <c r="D13" s="68" t="s">
-        <v>157</v>
-      </c>
-      <c r="E13" s="94" t="s">
-        <v>75</v>
-      </c>
-      <c r="F13" s="67" t="s">
-        <v>90</v>
-      </c>
-      <c r="G13" s="72" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="14" spans="2:7" ht="20.25" x14ac:dyDescent="0.35">
-      <c r="B14" s="95"/>
-      <c r="C14" s="67" t="s">
-        <v>14</v>
-      </c>
-      <c r="D14" s="68" t="s">
-        <v>166</v>
-      </c>
-      <c r="E14" s="94" t="s">
-        <v>75</v>
-      </c>
-      <c r="F14" s="67" t="s">
+      <c r="G49" s="96"/>
+    </row>
+    <row r="50" spans="2:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B50" s="75"/>
+      <c r="C50" s="97" t="s">
+        <v>20</v>
+      </c>
+      <c r="D50" s="98" t="s">
+        <v>179</v>
+      </c>
+      <c r="E50" s="99"/>
+      <c r="F50" s="98" t="s">
         <v>35</v>
       </c>
-      <c r="G14" s="72"/>
-    </row>
-    <row r="15" spans="2:7" ht="20.25" x14ac:dyDescent="0.35">
-      <c r="B15" s="95"/>
-      <c r="C15" s="67" t="s">
-        <v>46</v>
-      </c>
-      <c r="D15" s="69" t="s">
-        <v>167</v>
-      </c>
-      <c r="E15" s="94" t="s">
-        <v>75</v>
-      </c>
-      <c r="F15" s="67" t="s">
-        <v>30</v>
-      </c>
-      <c r="G15" s="72" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="16" spans="2:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B16" s="96"/>
-      <c r="C16" s="70" t="s">
-        <v>15</v>
-      </c>
-      <c r="D16" s="70" t="s">
-        <v>62</v>
-      </c>
-      <c r="E16" s="97" t="s">
-        <v>75</v>
-      </c>
-      <c r="F16" s="70" t="s">
-        <v>44</v>
-      </c>
-      <c r="G16" s="98"/>
-    </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B17" s="99" t="s">
-        <v>7</v>
-      </c>
-      <c r="C17" s="74" t="s">
-        <v>25</v>
-      </c>
-      <c r="D17" s="71" t="s">
-        <v>168</v>
-      </c>
-      <c r="E17" s="100" t="s">
-        <v>74</v>
-      </c>
-      <c r="F17" s="74" t="s">
+      <c r="G50" s="100"/>
+    </row>
+    <row r="51" spans="2:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B51" s="54" t="s">
+        <v>82</v>
+      </c>
+      <c r="C51" s="57" t="s">
+        <v>101</v>
+      </c>
+      <c r="D51" s="58"/>
+      <c r="E51" s="58"/>
+      <c r="F51" s="58"/>
+      <c r="G51" s="101"/>
+    </row>
+    <row r="52" spans="2:7" ht="21" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B52" s="102" t="s">
+        <v>184</v>
+      </c>
+      <c r="C52" s="57" t="s">
+        <v>183</v>
+      </c>
+      <c r="D52" s="103" t="s">
+        <v>8</v>
+      </c>
+      <c r="E52" s="103"/>
+      <c r="F52" s="103" t="s">
         <v>27</v>
       </c>
-      <c r="G17" s="74" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B18" s="101"/>
-      <c r="C18" s="67" t="s">
-        <v>92</v>
-      </c>
-      <c r="D18" s="72" t="s">
-        <v>8</v>
-      </c>
-      <c r="E18" s="102"/>
-      <c r="F18" s="67" t="s">
-        <v>41</v>
-      </c>
-      <c r="G18" s="67"/>
-    </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B19" s="96"/>
-      <c r="C19" s="67" t="s">
-        <v>52</v>
-      </c>
-      <c r="D19" s="72" t="s">
-        <v>65</v>
-      </c>
-      <c r="E19" s="102"/>
-      <c r="F19" s="67" t="s">
-        <v>54</v>
-      </c>
-      <c r="G19" s="67"/>
-    </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B20" s="96"/>
-      <c r="C20" s="67" t="s">
-        <v>53</v>
-      </c>
-      <c r="D20" s="72" t="s">
-        <v>53</v>
-      </c>
-      <c r="E20" s="102"/>
-      <c r="F20" s="67" t="s">
-        <v>56</v>
-      </c>
-      <c r="G20" s="67"/>
-    </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B21" s="96"/>
-      <c r="C21" s="67" t="s">
-        <v>16</v>
-      </c>
-      <c r="D21" s="72" t="s">
-        <v>63</v>
-      </c>
-      <c r="E21" s="102"/>
-      <c r="F21" s="67" t="s">
-        <v>35</v>
-      </c>
-      <c r="G21" s="67"/>
-    </row>
-    <row r="22" spans="2:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B22" s="103"/>
-      <c r="C22" s="75" t="s">
-        <v>20</v>
-      </c>
-      <c r="D22" s="73" t="s">
-        <v>64</v>
-      </c>
-      <c r="E22" s="104"/>
-      <c r="F22" s="75" t="s">
-        <v>35</v>
-      </c>
-      <c r="G22" s="75"/>
-    </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B23" s="99" t="s">
-        <v>4</v>
-      </c>
-      <c r="C23" s="74" t="s">
-        <v>37</v>
-      </c>
-      <c r="D23" s="74" t="s">
-        <v>76</v>
-      </c>
-      <c r="E23" s="105" t="s">
-        <v>74</v>
-      </c>
-      <c r="F23" s="74" t="s">
-        <v>27</v>
-      </c>
-      <c r="G23" s="71"/>
-    </row>
-    <row r="24" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B24" s="70"/>
-      <c r="C24" s="67" t="s">
-        <v>38</v>
-      </c>
-      <c r="D24" s="67" t="s">
-        <v>169</v>
-      </c>
-      <c r="E24" s="94" t="s">
-        <v>75</v>
-      </c>
-      <c r="F24" s="67" t="s">
-        <v>30</v>
-      </c>
-      <c r="G24" s="72" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="25" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B25" s="95"/>
-      <c r="C25" s="67" t="s">
-        <v>53</v>
-      </c>
-      <c r="D25" s="67" t="s">
-        <v>53</v>
-      </c>
-      <c r="E25" s="94"/>
-      <c r="F25" s="67" t="s">
-        <v>93</v>
-      </c>
-      <c r="G25" s="72"/>
-    </row>
-    <row r="26" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B26" s="95"/>
-      <c r="C26" s="67" t="s">
-        <v>45</v>
-      </c>
-      <c r="D26" s="67" t="s">
-        <v>45</v>
-      </c>
-      <c r="E26" s="94"/>
-      <c r="F26" s="67" t="s">
-        <v>30</v>
-      </c>
-      <c r="G26" s="72"/>
-    </row>
-    <row r="27" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B27" s="95"/>
-      <c r="C27" s="67" t="s">
-        <v>36</v>
-      </c>
-      <c r="D27" s="67" t="s">
-        <v>77</v>
-      </c>
-      <c r="E27" s="94"/>
-      <c r="F27" s="67" t="s">
-        <v>54</v>
-      </c>
-      <c r="G27" s="72"/>
-    </row>
-    <row r="28" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B28" s="95"/>
-      <c r="C28" s="67" t="s">
-        <v>39</v>
-      </c>
-      <c r="D28" s="67" t="s">
-        <v>78</v>
-      </c>
-      <c r="E28" s="94"/>
-      <c r="F28" s="67" t="s">
-        <v>57</v>
-      </c>
-      <c r="G28" s="72"/>
-    </row>
-    <row r="29" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B29" s="95"/>
-      <c r="C29" s="67" t="s">
-        <v>58</v>
-      </c>
-      <c r="D29" s="67" t="s">
-        <v>79</v>
-      </c>
-      <c r="E29" s="94"/>
-      <c r="F29" s="67" t="s">
-        <v>57</v>
-      </c>
-      <c r="G29" s="72"/>
-    </row>
-    <row r="30" spans="2:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B30" s="95"/>
-      <c r="C30" s="67" t="s">
-        <v>17</v>
-      </c>
-      <c r="D30" s="67" t="s">
-        <v>158</v>
-      </c>
-      <c r="E30" s="94"/>
-      <c r="F30" s="67" t="s">
-        <v>43</v>
-      </c>
-      <c r="G30" s="72"/>
-    </row>
-    <row r="31" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B31" s="99" t="s">
-        <v>6</v>
-      </c>
-      <c r="C31" s="74" t="s">
-        <v>26</v>
-      </c>
-      <c r="D31" s="74" t="s">
-        <v>178</v>
-      </c>
-      <c r="E31" s="105" t="s">
-        <v>75</v>
-      </c>
-      <c r="F31" s="74" t="s">
-        <v>27</v>
-      </c>
-      <c r="G31" s="71" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="32" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B32" s="70" t="s">
-        <v>61</v>
-      </c>
-      <c r="C32" s="67" t="s">
-        <v>18</v>
-      </c>
-      <c r="D32" s="67" t="s">
-        <v>170</v>
-      </c>
-      <c r="E32" s="94"/>
-      <c r="F32" s="67" t="s">
-        <v>41</v>
-      </c>
-      <c r="G32" s="72" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="33" spans="2:7" ht="20.25" x14ac:dyDescent="0.35">
-      <c r="B33" s="96"/>
-      <c r="C33" s="70" t="s">
-        <v>97</v>
-      </c>
-      <c r="D33" s="69" t="s">
-        <v>159</v>
-      </c>
-      <c r="E33" s="97"/>
-      <c r="F33" s="70" t="s">
-        <v>30</v>
-      </c>
-      <c r="G33" s="98" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="34" spans="2:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B34" s="103"/>
-      <c r="C34" s="75" t="s">
-        <v>19</v>
-      </c>
-      <c r="D34" s="75" t="s">
-        <v>171</v>
-      </c>
-      <c r="E34" s="106"/>
-      <c r="F34" s="75" t="s">
-        <v>98</v>
-      </c>
-      <c r="G34" s="73" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="35" spans="2:7" ht="20.25" x14ac:dyDescent="0.35">
-      <c r="B35" s="99" t="s">
-        <v>5</v>
-      </c>
-      <c r="C35" s="74" t="s">
-        <v>185</v>
-      </c>
-      <c r="D35" s="69" t="s">
-        <v>8</v>
-      </c>
-      <c r="E35" s="105" t="s">
-        <v>75</v>
-      </c>
-      <c r="F35" s="74" t="s">
-        <v>27</v>
-      </c>
-      <c r="G35" s="71" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="36" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B36" s="70" t="s">
-        <v>195</v>
-      </c>
-      <c r="C36" s="67" t="s">
-        <v>21</v>
-      </c>
-      <c r="D36" s="67" t="s">
-        <v>173</v>
-      </c>
-      <c r="E36" s="94"/>
-      <c r="F36" s="67" t="s">
-        <v>41</v>
-      </c>
-      <c r="G36" s="72" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="37" spans="2:7" ht="37.5" x14ac:dyDescent="0.3">
-      <c r="B37" s="95"/>
-      <c r="C37" s="76" t="s">
-        <v>22</v>
-      </c>
-      <c r="D37" s="76" t="s">
-        <v>174</v>
-      </c>
-      <c r="E37" s="76"/>
-      <c r="F37" s="76" t="s">
-        <v>30</v>
-      </c>
-      <c r="G37" s="107" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="38" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B38" s="95"/>
-      <c r="C38" s="67" t="s">
-        <v>28</v>
-      </c>
-      <c r="D38" s="67" t="s">
-        <v>175</v>
-      </c>
-      <c r="E38" s="94"/>
-      <c r="F38" s="67" t="s">
-        <v>86</v>
-      </c>
-      <c r="G38" s="72" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="39" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B39" s="95"/>
-      <c r="C39" s="67" t="s">
-        <v>23</v>
-      </c>
-      <c r="D39" s="67" t="s">
-        <v>176</v>
-      </c>
-      <c r="E39" s="94"/>
-      <c r="F39" s="67" t="s">
-        <v>99</v>
-      </c>
-      <c r="G39" s="72"/>
-    </row>
-    <row r="40" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B40" s="95"/>
-      <c r="C40" s="67" t="s">
-        <v>24</v>
-      </c>
-      <c r="D40" s="67" t="s">
-        <v>177</v>
-      </c>
-      <c r="E40" s="94"/>
-      <c r="F40" s="67" t="s">
-        <v>30</v>
-      </c>
-      <c r="G40" s="72" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="41" spans="2:7" ht="37.5" x14ac:dyDescent="0.3">
-      <c r="B41" s="95"/>
-      <c r="C41" s="128" t="s">
-        <v>100</v>
-      </c>
-      <c r="D41" s="76" t="s">
-        <v>179</v>
-      </c>
-      <c r="E41" s="108"/>
-      <c r="F41" s="76" t="s">
-        <v>30</v>
-      </c>
-      <c r="G41" s="109" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="42" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B42" s="95"/>
-      <c r="C42" s="67" t="s">
-        <v>42</v>
-      </c>
-      <c r="D42" s="67" t="s">
-        <v>180</v>
-      </c>
-      <c r="E42" s="94"/>
-      <c r="F42" s="67" t="s">
-        <v>30</v>
-      </c>
-      <c r="G42" s="72" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="43" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B43" s="96"/>
-      <c r="C43" s="70" t="s">
-        <v>150</v>
-      </c>
-      <c r="D43" s="70" t="s">
-        <v>186</v>
-      </c>
-      <c r="E43" s="97"/>
-      <c r="F43" s="70" t="s">
-        <v>54</v>
-      </c>
-      <c r="G43" s="98"/>
-    </row>
-    <row r="44" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B44" s="96"/>
-      <c r="C44" s="70" t="s">
-        <v>151</v>
-      </c>
-      <c r="D44" s="70" t="s">
-        <v>181</v>
-      </c>
-      <c r="E44" s="97"/>
-      <c r="F44" s="70" t="s">
-        <v>35</v>
-      </c>
-      <c r="G44" s="98"/>
-    </row>
-    <row r="45" spans="2:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B45" s="96"/>
-      <c r="C45" s="70" t="s">
-        <v>80</v>
-      </c>
-      <c r="D45" s="70" t="s">
+      <c r="G52" s="101" t="s">
         <v>182</v>
       </c>
-      <c r="E45" s="97"/>
-      <c r="F45" s="70" t="s">
-        <v>66</v>
-      </c>
-      <c r="G45" s="98"/>
-    </row>
-    <row r="46" spans="2:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B46" s="74" t="s">
-        <v>96</v>
-      </c>
-      <c r="C46" s="110" t="s">
-        <v>187</v>
-      </c>
-      <c r="D46" s="111"/>
-      <c r="E46" s="111"/>
-      <c r="F46" s="111"/>
-      <c r="G46" s="112"/>
-    </row>
-    <row r="47" spans="2:7" ht="20.25" x14ac:dyDescent="0.35">
-      <c r="B47" s="113" t="s">
-        <v>194</v>
-      </c>
-      <c r="C47" s="114" t="s">
-        <v>189</v>
-      </c>
-      <c r="D47" s="115" t="s">
-        <v>8</v>
-      </c>
-      <c r="E47" s="114"/>
-      <c r="F47" s="115" t="s">
-        <v>27</v>
-      </c>
-      <c r="G47" s="116" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="48" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B48" s="95"/>
-      <c r="C48" s="117" t="s">
-        <v>16</v>
-      </c>
-      <c r="D48" s="118" t="s">
-        <v>163</v>
-      </c>
-      <c r="E48" s="117"/>
-      <c r="F48" s="118" t="s">
-        <v>35</v>
-      </c>
-      <c r="G48" s="119"/>
-    </row>
-    <row r="49" spans="2:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B49" s="95"/>
-      <c r="C49" s="120" t="s">
-        <v>20</v>
-      </c>
-      <c r="D49" s="121" t="s">
-        <v>188</v>
-      </c>
-      <c r="E49" s="122"/>
-      <c r="F49" s="121" t="s">
-        <v>35</v>
-      </c>
-      <c r="G49" s="123"/>
-    </row>
-    <row r="50" spans="2:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B50" s="74" t="s">
-        <v>82</v>
-      </c>
-      <c r="C50" s="77" t="s">
-        <v>101</v>
-      </c>
-      <c r="D50" s="78"/>
-      <c r="E50" s="78"/>
-      <c r="F50" s="78"/>
-      <c r="G50" s="124"/>
-    </row>
-    <row r="51" spans="2:7" ht="21" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B51" s="125" t="s">
-        <v>193</v>
-      </c>
-      <c r="C51" s="77" t="s">
-        <v>192</v>
-      </c>
-      <c r="D51" s="126" t="s">
-        <v>8</v>
-      </c>
-      <c r="E51" s="126"/>
-      <c r="F51" s="126" t="s">
-        <v>27</v>
-      </c>
-      <c r="G51" s="124" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="52" spans="2:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B52" s="103" t="s">
+    </row>
+    <row r="53" spans="2:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B53" s="83" t="s">
         <v>83</v>
       </c>
-      <c r="C52" s="77" t="s">
-        <v>106</v>
-      </c>
-      <c r="D52" s="78"/>
-      <c r="E52" s="78"/>
-      <c r="F52" s="78"/>
-      <c r="G52" s="124"/>
-    </row>
-    <row r="53" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B53" s="79"/>
-      <c r="C53" s="79"/>
-      <c r="D53" s="79"/>
-      <c r="E53" s="127"/>
-      <c r="F53" s="79"/>
-      <c r="G53" s="79"/>
+      <c r="C53" s="57" t="s">
+        <v>102</v>
+      </c>
+      <c r="D53" s="58"/>
+      <c r="E53" s="58"/>
+      <c r="F53" s="58"/>
+      <c r="G53" s="101"/>
+    </row>
+    <row r="54" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B54" s="59"/>
+      <c r="C54" s="59"/>
+      <c r="D54" s="59"/>
+      <c r="E54" s="104"/>
+      <c r="F54" s="59"/>
+      <c r="G54" s="59"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="C46:G46"/>
+    <mergeCell ref="C47:G47"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="45" orientation="portrait" horizontalDpi="4294967293" r:id="rId1"/>
@@ -2891,7 +2937,7 @@
       </c>
     </row>
     <row r="3" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="80" t="s">
+      <c r="B3" s="60" t="s">
         <v>6</v>
       </c>
       <c r="C3" s="3" t="s">
@@ -2905,10 +2951,10 @@
       </c>
     </row>
     <row r="4" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="83" t="s">
+      <c r="B4" s="63" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="84" t="s">
+      <c r="C4" s="64" t="s">
         <v>82</v>
       </c>
       <c r="D4" s="5" t="s">
@@ -2919,10 +2965,10 @@
       </c>
     </row>
     <row r="5" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="83" t="s">
+      <c r="B5" s="63" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="84" t="s">
+      <c r="C5" s="64" t="s">
         <v>4</v>
       </c>
       <c r="D5" s="5" t="s">
@@ -2933,24 +2979,24 @@
       </c>
     </row>
     <row r="6" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="83" t="s">
+      <c r="B6" s="63" t="s">
         <v>81</v>
       </c>
-      <c r="C6" s="84" t="s">
+      <c r="C6" s="64" t="s">
         <v>82</v>
       </c>
       <c r="D6" s="5" t="s">
         <v>72</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
     <row r="7" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="83" t="s">
+      <c r="B7" s="63" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="84" t="s">
+      <c r="C7" s="64" t="s">
         <v>4</v>
       </c>
       <c r="D7" s="5" t="s">
@@ -2961,36 +3007,36 @@
       </c>
     </row>
     <row r="8" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="83" t="s">
+      <c r="B8" s="63" t="s">
         <v>3</v>
       </c>
-      <c r="C8" s="84" t="s">
+      <c r="C8" s="64" t="s">
         <v>96</v>
       </c>
       <c r="D8" s="5" t="s">
         <v>72</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
     <row r="9" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="80" t="s">
+      <c r="B9" s="60" t="s">
         <v>5</v>
       </c>
-      <c r="C9" s="82" t="s">
+      <c r="C9" s="62" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="81" t="s">
+      <c r="D9" s="61" t="s">
         <v>72</v>
       </c>
-      <c r="E9" s="81" t="s">
+      <c r="E9" s="61" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="10" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B10" s="85"/>
-      <c r="C10" s="85"/>
+      <c r="B10" s="65"/>
+      <c r="C10" s="65"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2999,248 +3045,273 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B8B7BC1-A8FC-4EEB-92AD-FF4877B32F10}">
-  <dimension ref="B3:F12"/>
+  <dimension ref="B2:F12"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="43.42578125" customWidth="1"/>
+    <col min="1" max="1" width="5" customWidth="1"/>
+    <col min="2" max="2" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="29.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.140625" customWidth="1"/>
+    <col min="5" max="5" width="6.42578125" customWidth="1"/>
+    <col min="6" max="6" width="17.85546875" style="114" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" t="s">
-        <v>152</v>
-      </c>
-      <c r="C3" t="s">
-        <v>120</v>
-      </c>
-      <c r="F3" t="s">
+    <row r="2" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="2:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="F3" s="115" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="2:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C4" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="F4" s="8" t="s">
+    <row r="4" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B4" s="126" t="s">
+        <v>188</v>
+      </c>
+      <c r="C4" s="121" t="s">
+        <v>192</v>
+      </c>
+      <c r="D4" s="123">
+        <v>20</v>
+      </c>
+      <c r="F4" s="119" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="127"/>
+      <c r="C5" s="9" t="s">
+        <v>193</v>
+      </c>
+      <c r="D5" s="124">
+        <v>19</v>
+      </c>
+      <c r="F5" s="116" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="128" t="s">
+        <v>189</v>
+      </c>
+      <c r="C6" s="129" t="s">
+        <v>191</v>
+      </c>
+      <c r="D6" s="130">
+        <v>10</v>
+      </c>
+      <c r="F6" s="120" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="131"/>
+      <c r="C7" s="132" t="s">
+        <v>194</v>
+      </c>
+      <c r="D7" s="133">
+        <v>9</v>
+      </c>
+      <c r="F7" s="134" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="125" t="s">
+        <v>94</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="D8" s="122">
+        <v>0</v>
+      </c>
+      <c r="F8" s="135" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="5" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B5" t="s">
-        <v>121</v>
-      </c>
-      <c r="C5" s="14" t="s">
-        <v>102</v>
-      </c>
-      <c r="F5" s="8" t="s">
+    <row r="9" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F9" s="136" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="6" spans="2:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C6" s="14" t="s">
-        <v>104</v>
-      </c>
-      <c r="F6" s="8" t="s">
+    <row r="10" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="F10" s="117" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="7" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B7" t="s">
-        <v>123</v>
-      </c>
-      <c r="C7" s="12" t="s">
-        <v>103</v>
-      </c>
-      <c r="F7" s="11" t="s">
+    <row r="11" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="F11" s="117" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="8" spans="2:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C8" s="13" t="s">
-        <v>105</v>
-      </c>
-      <c r="F8" s="11" t="s">
+    <row r="12" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F12" s="118" t="s">
         <v>115</v>
-      </c>
-    </row>
-    <row r="9" spans="2:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" t="s">
-        <v>122</v>
-      </c>
-      <c r="C9" s="9" t="s">
-        <v>94</v>
-      </c>
-      <c r="F9" s="11" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="F10" s="10" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="F11" s="10" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="F12" s="10" t="s">
-        <v>119</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <headerFooter>
+    <oddHeader>&amp;C&amp;"-,Bold"&amp;14Jolly Streaming Service
+Project 2  - Amplifire
+&amp;D</oddHeader>
+  </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4953089E-755C-4E1F-8FC1-FDA1E1E85976}">
-  <dimension ref="B1:O24"/>
+  <dimension ref="B1:N24"/>
   <sheetViews>
-    <sheetView view="pageLayout" zoomScale="70" zoomScaleNormal="140" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView view="pageLayout" zoomScale="70" zoomScaleNormal="80" zoomScalePageLayoutView="70" workbookViewId="0">
+      <selection activeCell="M6" sqref="M6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="23.25" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="1.85546875" style="15" customWidth="1"/>
-    <col min="2" max="2" width="28.28515625" style="15" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.140625" style="15" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.7109375" style="15" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="10.5703125" style="15" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="5.28515625" style="15" customWidth="1"/>
-    <col min="8" max="8" width="29.42578125" style="15" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15" style="15" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.42578125" style="15" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="30" style="15" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="16" style="15" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="24.140625" style="15" customWidth="1"/>
-    <col min="14" max="14" width="26.140625" style="15" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="15"/>
+    <col min="1" max="1" width="1.85546875" style="10" customWidth="1"/>
+    <col min="2" max="2" width="28" style="10" customWidth="1"/>
+    <col min="3" max="3" width="15.140625" style="10" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.42578125" style="10" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.42578125" style="10" customWidth="1"/>
+    <col min="6" max="6" width="16" style="10" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.85546875" style="10" customWidth="1"/>
+    <col min="8" max="8" width="27.42578125" style="10" customWidth="1"/>
+    <col min="9" max="9" width="14.140625" style="10" customWidth="1"/>
+    <col min="10" max="10" width="13" style="10" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="10" customWidth="1"/>
+    <col min="12" max="12" width="15.140625" style="10" customWidth="1"/>
+    <col min="13" max="13" width="24.140625" style="10" customWidth="1"/>
+    <col min="14" max="14" width="26.140625" style="10" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:15" ht="6.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="2:15" x14ac:dyDescent="0.35">
-      <c r="B2" s="15" t="s">
+    <row r="1" spans="2:14" ht="6.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="B2" s="10" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="4" spans="2:14" ht="24" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B4" s="11" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="5" spans="2:14" ht="24" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B5" s="12"/>
+    </row>
+    <row r="6" spans="2:14" ht="24" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B6" s="13" t="s">
+        <v>119</v>
+      </c>
+      <c r="C6" s="14" t="s">
+        <v>121</v>
+      </c>
+      <c r="D6" s="17" t="s">
+        <v>122</v>
+      </c>
+      <c r="E6" s="16" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="4" spans="2:15" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B4" s="16" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="5" spans="2:15" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B5" s="17"/>
-      <c r="L5" s="17"/>
-    </row>
-    <row r="6" spans="2:15" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B6" s="18" t="s">
-        <v>126</v>
-      </c>
-      <c r="C6" s="19" t="s">
-        <v>129</v>
-      </c>
-      <c r="D6" s="20" t="s">
-        <v>130</v>
-      </c>
-      <c r="E6" s="20" t="s">
-        <v>133</v>
-      </c>
-      <c r="F6" s="21" t="s">
-        <v>131</v>
-      </c>
-      <c r="G6" s="22"/>
-      <c r="H6" s="18" t="s">
-        <v>127</v>
-      </c>
-      <c r="I6" s="19" t="s">
-        <v>129</v>
-      </c>
-      <c r="J6" s="23" t="s">
-        <v>130</v>
-      </c>
-      <c r="K6" s="21" t="s">
-        <v>133</v>
-      </c>
-      <c r="L6" s="20" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="7" spans="2:15" x14ac:dyDescent="0.35">
-      <c r="B7" s="24" t="s">
+      <c r="F6" s="15" t="s">
+        <v>123</v>
+      </c>
+      <c r="H6" s="13" t="s">
+        <v>120</v>
+      </c>
+      <c r="I6" s="14" t="s">
+        <v>121</v>
+      </c>
+      <c r="J6" s="17" t="s">
+        <v>122</v>
+      </c>
+      <c r="K6" s="17" t="s">
+        <v>125</v>
+      </c>
+      <c r="L6" s="16" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="7" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="B7" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="25" t="s">
+      <c r="C7" s="19" t="s">
         <v>75</v>
       </c>
-      <c r="D7" s="26" t="s">
+      <c r="D7" s="22" t="s">
         <v>75</v>
       </c>
-      <c r="E7" s="26" t="s">
+      <c r="E7" s="23" t="s">
+        <v>124</v>
+      </c>
+      <c r="F7" s="24" t="s">
+        <v>124</v>
+      </c>
+      <c r="H7" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="I7" s="19" t="s">
         <v>75</v>
       </c>
-      <c r="F7" s="27" t="s">
+      <c r="J7" s="22" t="s">
+        <v>124</v>
+      </c>
+      <c r="K7" s="22" t="s">
+        <v>124</v>
+      </c>
+      <c r="L7" s="21" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="8" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="B8" s="25" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8" s="26" t="s">
         <v>75</v>
       </c>
-      <c r="G7" s="28"/>
-      <c r="H7" s="24" t="s">
-        <v>3</v>
-      </c>
-      <c r="I7" s="25" t="s">
+      <c r="D8" s="29" t="s">
         <v>75</v>
       </c>
-      <c r="J7" s="29" t="s">
+      <c r="E8" s="30" t="s">
+        <v>124</v>
+      </c>
+      <c r="F8" s="31" t="s">
+        <v>124</v>
+      </c>
+      <c r="H8" s="25" t="s">
+        <v>4</v>
+      </c>
+      <c r="I8" s="26" t="s">
         <v>75</v>
       </c>
-      <c r="K7" s="30" t="s">
-        <v>132</v>
-      </c>
-      <c r="L7" s="31" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="8" spans="2:15" x14ac:dyDescent="0.35">
-      <c r="B8" s="32" t="s">
-        <v>4</v>
-      </c>
-      <c r="C8" s="33" t="s">
+      <c r="J8" s="29" t="s">
+        <v>124</v>
+      </c>
+      <c r="K8" s="29" t="s">
         <v>75</v>
       </c>
-      <c r="D8" s="34" t="s">
-        <v>75</v>
-      </c>
-      <c r="E8" s="34" t="s">
-        <v>75</v>
-      </c>
-      <c r="F8" s="35" t="s">
-        <v>75</v>
-      </c>
-      <c r="G8" s="28"/>
-      <c r="H8" s="32" t="s">
-        <v>4</v>
-      </c>
-      <c r="I8" s="33" t="s">
-        <v>75</v>
-      </c>
-      <c r="J8" s="36" t="s">
-        <v>75</v>
-      </c>
-      <c r="K8" s="37" t="s">
-        <v>132</v>
-      </c>
-      <c r="L8" s="38" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="9" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="L8" s="28" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="9" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B9" s="32" t="s">
         <v>7</v>
       </c>
@@ -3250,493 +3321,356 @@
       <c r="D9" s="34" t="s">
         <v>75</v>
       </c>
-      <c r="E9" s="34" t="s">
+      <c r="E9" s="35" t="s">
+        <v>124</v>
+      </c>
+      <c r="F9" s="36" t="s">
+        <v>124</v>
+      </c>
+      <c r="H9" s="25" t="s">
+        <v>7</v>
+      </c>
+      <c r="I9" s="26" t="s">
+        <v>124</v>
+      </c>
+      <c r="J9" s="29" t="s">
+        <v>124</v>
+      </c>
+      <c r="K9" s="29" t="s">
+        <v>124</v>
+      </c>
+      <c r="L9" s="28" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="10" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="B10" s="32" t="s">
+        <v>82</v>
+      </c>
+      <c r="C10" s="33" t="s">
         <v>75</v>
       </c>
-      <c r="F9" s="35" t="s">
+      <c r="D10" s="34" t="s">
+        <v>124</v>
+      </c>
+      <c r="E10" s="35" t="s">
+        <v>124</v>
+      </c>
+      <c r="F10" s="36" t="s">
+        <v>124</v>
+      </c>
+      <c r="H10" s="25" t="s">
+        <v>82</v>
+      </c>
+      <c r="I10" s="26" t="s">
+        <v>124</v>
+      </c>
+      <c r="J10" s="29" t="s">
+        <v>124</v>
+      </c>
+      <c r="K10" s="29" t="s">
+        <v>124</v>
+      </c>
+      <c r="L10" s="28" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="11" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="B11" s="32" t="s">
+        <v>6</v>
+      </c>
+      <c r="C11" s="33" t="s">
         <v>75</v>
       </c>
-      <c r="G9" s="28"/>
-      <c r="H9" s="39" t="s">
+      <c r="D11" s="34" t="s">
+        <v>124</v>
+      </c>
+      <c r="E11" s="35" t="s">
+        <v>124</v>
+      </c>
+      <c r="F11" s="36" t="s">
+        <v>124</v>
+      </c>
+      <c r="H11" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="I11" s="26" t="s">
+        <v>75</v>
+      </c>
+      <c r="J11" s="29" t="s">
+        <v>124</v>
+      </c>
+      <c r="K11" s="29" t="s">
+        <v>124</v>
+      </c>
+      <c r="L11" s="28" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="12" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="B12" s="32" t="s">
+        <v>96</v>
+      </c>
+      <c r="C12" s="33" t="s">
+        <v>75</v>
+      </c>
+      <c r="D12" s="34" t="s">
+        <v>124</v>
+      </c>
+      <c r="E12" s="35" t="s">
+        <v>124</v>
+      </c>
+      <c r="F12" s="36" t="s">
+        <v>124</v>
+      </c>
+      <c r="G12" s="12"/>
+      <c r="H12" s="25" t="s">
+        <v>96</v>
+      </c>
+      <c r="I12" s="26" t="s">
+        <v>124</v>
+      </c>
+      <c r="J12" s="29" t="s">
+        <v>124</v>
+      </c>
+      <c r="K12" s="29" t="s">
+        <v>124</v>
+      </c>
+      <c r="L12" s="28" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="13" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="B13" s="32" t="s">
+        <v>5</v>
+      </c>
+      <c r="C13" s="26" t="s">
+        <v>75</v>
+      </c>
+      <c r="D13" s="29" t="s">
+        <v>75</v>
+      </c>
+      <c r="E13" s="30" t="s">
+        <v>124</v>
+      </c>
+      <c r="F13" s="31" t="s">
+        <v>124</v>
+      </c>
+      <c r="G13" s="12"/>
+      <c r="H13" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="I13" s="26" t="s">
+        <v>75</v>
+      </c>
+      <c r="J13" s="29" t="s">
+        <v>124</v>
+      </c>
+      <c r="K13" s="29" t="s">
+        <v>124</v>
+      </c>
+      <c r="L13" s="28" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="14" spans="2:14" ht="24" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B14" s="37" t="s">
+        <v>104</v>
+      </c>
+      <c r="C14" s="140" t="s">
+        <v>130</v>
+      </c>
+      <c r="D14" s="141"/>
+      <c r="E14" s="141"/>
+      <c r="F14" s="142"/>
+      <c r="H14" s="37" t="s">
+        <v>104</v>
+      </c>
+      <c r="I14" s="143" t="s">
+        <v>130</v>
+      </c>
+      <c r="J14" s="144"/>
+      <c r="K14" s="144"/>
+      <c r="L14" s="145"/>
+    </row>
+    <row r="15" spans="2:14" ht="24" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="D15" s="38"/>
+      <c r="E15" s="39"/>
+      <c r="F15" s="39"/>
+      <c r="I15" s="12"/>
+      <c r="J15" s="12"/>
+      <c r="K15" s="12"/>
+      <c r="L15" s="12"/>
+      <c r="M15" s="12"/>
+      <c r="N15" s="12"/>
+    </row>
+    <row r="16" spans="2:14" ht="46.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B16" s="111" t="s">
+        <v>127</v>
+      </c>
+      <c r="C16" s="112" t="s">
+        <v>120</v>
+      </c>
+      <c r="D16" s="113" t="s">
+        <v>119</v>
+      </c>
+      <c r="E16" s="108" t="s">
+        <v>134</v>
+      </c>
+      <c r="F16" s="110" t="s">
+        <v>126</v>
+      </c>
+      <c r="G16" s="107" t="s">
+        <v>139</v>
+      </c>
+      <c r="H16" s="109" t="s">
+        <v>128</v>
+      </c>
+      <c r="I16" s="40"/>
+    </row>
+    <row r="17" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B17" s="41" t="s">
+        <v>3</v>
+      </c>
+      <c r="C17" s="19" t="s">
+        <v>131</v>
+      </c>
+      <c r="D17" s="20" t="s">
+        <v>135</v>
+      </c>
+      <c r="E17" s="20"/>
+      <c r="F17" s="20"/>
+      <c r="G17" s="20" t="s">
+        <v>132</v>
+      </c>
+      <c r="H17" s="24" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="18" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B18" s="42" t="s">
+        <v>4</v>
+      </c>
+      <c r="C18" s="26" t="s">
+        <v>140</v>
+      </c>
+      <c r="D18" s="27" t="s">
+        <v>135</v>
+      </c>
+      <c r="E18" s="27"/>
+      <c r="F18" s="27"/>
+      <c r="G18" s="27" t="s">
+        <v>132</v>
+      </c>
+      <c r="H18" s="31" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="19" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B19" s="42" t="s">
         <v>7</v>
       </c>
-      <c r="I9" s="40" t="s">
-        <v>75</v>
-      </c>
-      <c r="J9" s="41" t="s">
-        <v>75</v>
-      </c>
-      <c r="K9" s="42" t="s">
+      <c r="C19" s="26"/>
+      <c r="D19" s="27" t="s">
+        <v>135</v>
+      </c>
+      <c r="E19" s="27" t="s">
         <v>132</v>
       </c>
-      <c r="L9" s="43" t="s">
+      <c r="F19" s="27" t="s">
+        <v>135</v>
+      </c>
+      <c r="G19" s="27"/>
+      <c r="H19" s="31"/>
+    </row>
+    <row r="20" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B20" s="42" t="s">
+        <v>138</v>
+      </c>
+      <c r="C20" s="26"/>
+      <c r="D20" s="27" t="s">
+        <v>131</v>
+      </c>
+      <c r="E20" s="27" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="10" spans="2:15" x14ac:dyDescent="0.35">
-      <c r="B10" s="39" t="s">
-        <v>82</v>
-      </c>
-      <c r="C10" s="40" t="s">
-        <v>75</v>
-      </c>
-      <c r="D10" s="44" t="s">
-        <v>75</v>
-      </c>
-      <c r="E10" s="44" t="s">
-        <v>75</v>
-      </c>
-      <c r="F10" s="45" t="s">
-        <v>75</v>
-      </c>
-      <c r="G10" s="28"/>
-      <c r="H10" s="39" t="s">
-        <v>82</v>
-      </c>
-      <c r="I10" s="40" t="s">
-        <v>75</v>
-      </c>
-      <c r="J10" s="41" t="s">
+      <c r="F20" s="27" t="s">
+        <v>135</v>
+      </c>
+      <c r="G20" s="27"/>
+      <c r="H20" s="31"/>
+    </row>
+    <row r="21" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B21" s="42" t="s">
+        <v>6</v>
+      </c>
+      <c r="C21" s="26" t="s">
+        <v>131</v>
+      </c>
+      <c r="D21" s="27" t="s">
+        <v>131</v>
+      </c>
+      <c r="E21" s="27" t="s">
         <v>132</v>
       </c>
-      <c r="K10" s="42" t="s">
+      <c r="F21" s="27" t="s">
+        <v>135</v>
+      </c>
+      <c r="G21" s="27"/>
+      <c r="H21" s="31"/>
+    </row>
+    <row r="22" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B22" s="42" t="s">
+        <v>137</v>
+      </c>
+      <c r="C22" s="26"/>
+      <c r="D22" s="27"/>
+      <c r="E22" s="27"/>
+      <c r="F22" s="27"/>
+      <c r="G22" s="27" t="s">
+        <v>136</v>
+      </c>
+      <c r="H22" s="31" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="23" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B23" s="42" t="s">
+        <v>5</v>
+      </c>
+      <c r="C23" s="26" t="s">
+        <v>131</v>
+      </c>
+      <c r="D23" s="27" t="s">
+        <v>135</v>
+      </c>
+      <c r="E23" s="27" t="s">
         <v>132</v>
       </c>
-      <c r="L10" s="43" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="11" spans="2:15" x14ac:dyDescent="0.35">
-      <c r="B11" s="39" t="s">
-        <v>6</v>
-      </c>
-      <c r="C11" s="40" t="s">
-        <v>75</v>
-      </c>
-      <c r="D11" s="44" t="s">
-        <v>75</v>
-      </c>
-      <c r="E11" s="44" t="s">
-        <v>75</v>
-      </c>
-      <c r="F11" s="45" t="s">
-        <v>75</v>
-      </c>
-      <c r="G11" s="28"/>
-      <c r="H11" s="39" t="s">
-        <v>6</v>
-      </c>
-      <c r="I11" s="40" t="s">
-        <v>75</v>
-      </c>
-      <c r="J11" s="41" t="s">
-        <v>132</v>
-      </c>
-      <c r="K11" s="42" t="s">
-        <v>132</v>
-      </c>
-      <c r="L11" s="43" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="12" spans="2:15" x14ac:dyDescent="0.35">
-      <c r="B12" s="39" t="s">
-        <v>96</v>
-      </c>
-      <c r="C12" s="40" t="s">
-        <v>75</v>
-      </c>
-      <c r="D12" s="44" t="s">
-        <v>75</v>
-      </c>
-      <c r="E12" s="44" t="s">
-        <v>75</v>
-      </c>
-      <c r="F12" s="45" t="s">
-        <v>75</v>
-      </c>
-      <c r="G12" s="28"/>
-      <c r="H12" s="39" t="s">
-        <v>96</v>
-      </c>
-      <c r="I12" s="40" t="s">
-        <v>75</v>
-      </c>
-      <c r="J12" s="41" t="s">
-        <v>132</v>
-      </c>
-      <c r="K12" s="42" t="s">
-        <v>132</v>
-      </c>
-      <c r="L12" s="43" t="s">
-        <v>132</v>
-      </c>
-      <c r="M12" s="17"/>
-    </row>
-    <row r="13" spans="2:15" x14ac:dyDescent="0.35">
-      <c r="B13" s="39" t="s">
-        <v>5</v>
-      </c>
-      <c r="C13" s="40" t="s">
-        <v>75</v>
-      </c>
-      <c r="D13" s="44" t="s">
-        <v>75</v>
-      </c>
-      <c r="E13" s="44" t="s">
-        <v>75</v>
-      </c>
-      <c r="F13" s="45" t="s">
-        <v>75</v>
-      </c>
-      <c r="G13" s="28"/>
-      <c r="H13" s="39" t="s">
-        <v>5</v>
-      </c>
-      <c r="I13" s="33" t="s">
-        <v>75</v>
-      </c>
-      <c r="J13" s="36" t="s">
-        <v>75</v>
-      </c>
-      <c r="K13" s="37" t="s">
-        <v>132</v>
-      </c>
-      <c r="L13" s="38" t="s">
-        <v>132</v>
-      </c>
-      <c r="M13" s="17"/>
-    </row>
-    <row r="14" spans="2:15" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B14" s="46" t="s">
-        <v>108</v>
-      </c>
-      <c r="C14" s="58" t="s">
-        <v>138</v>
-      </c>
-      <c r="D14" s="59"/>
-      <c r="E14" s="59"/>
-      <c r="F14" s="60"/>
-      <c r="G14" s="28"/>
-      <c r="H14" s="46" t="s">
-        <v>108</v>
-      </c>
-      <c r="I14" s="61" t="s">
-        <v>138</v>
-      </c>
-      <c r="J14" s="62"/>
-      <c r="K14" s="62"/>
-      <c r="L14" s="63"/>
-    </row>
-    <row r="15" spans="2:15" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="D15" s="47"/>
-      <c r="E15" s="48"/>
-      <c r="F15" s="48"/>
-      <c r="I15" s="17"/>
-      <c r="J15" s="17"/>
-      <c r="K15" s="17"/>
-      <c r="L15" s="17"/>
-      <c r="M15" s="17"/>
-      <c r="N15" s="17"/>
-    </row>
-    <row r="16" spans="2:15" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B16" s="18" t="s">
-        <v>128</v>
-      </c>
-      <c r="C16" s="19" t="s">
-        <v>129</v>
-      </c>
-      <c r="D16" s="23" t="s">
+      <c r="F23" s="27" t="s">
+        <v>133</v>
+      </c>
+      <c r="G23" s="27"/>
+      <c r="H23" s="31"/>
+    </row>
+    <row r="24" spans="2:8" ht="24" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B24" s="43" t="s">
+        <v>104</v>
+      </c>
+      <c r="C24" s="143" t="s">
         <v>130</v>
       </c>
-      <c r="E16" s="23" t="s">
-        <v>133</v>
-      </c>
-      <c r="F16" s="21" t="s">
-        <v>131</v>
-      </c>
-      <c r="G16" s="49"/>
-      <c r="H16" s="50" t="s">
-        <v>135</v>
-      </c>
-      <c r="I16" s="51" t="s">
-        <v>128</v>
-      </c>
-      <c r="J16" s="16" t="s">
-        <v>127</v>
-      </c>
-      <c r="K16" s="52" t="s">
-        <v>142</v>
-      </c>
-      <c r="L16" s="52" t="s">
-        <v>134</v>
-      </c>
-      <c r="M16" s="16" t="s">
-        <v>147</v>
-      </c>
-      <c r="N16" s="53" t="s">
-        <v>136</v>
-      </c>
-      <c r="O16" s="54"/>
-    </row>
-    <row r="17" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B17" s="24" t="s">
-        <v>3</v>
-      </c>
-      <c r="C17" s="25" t="s">
-        <v>75</v>
-      </c>
-      <c r="D17" s="29" t="s">
-        <v>132</v>
-      </c>
-      <c r="E17" s="29" t="s">
-        <v>132</v>
-      </c>
-      <c r="F17" s="27" t="s">
-        <v>132</v>
-      </c>
-      <c r="H17" s="55" t="s">
-        <v>3</v>
-      </c>
-      <c r="I17" s="25" t="s">
-        <v>139</v>
-      </c>
-      <c r="J17" s="26" t="s">
-        <v>143</v>
-      </c>
-      <c r="K17" s="26"/>
-      <c r="L17" s="26"/>
-      <c r="M17" s="26" t="s">
-        <v>140</v>
-      </c>
-      <c r="N17" s="31" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="18" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B18" s="32" t="s">
-        <v>4</v>
-      </c>
-      <c r="C18" s="33" t="s">
-        <v>75</v>
-      </c>
-      <c r="D18" s="36" t="s">
-        <v>132</v>
-      </c>
-      <c r="E18" s="36" t="s">
-        <v>75</v>
-      </c>
-      <c r="F18" s="35" t="s">
-        <v>132</v>
-      </c>
-      <c r="H18" s="56" t="s">
-        <v>4</v>
-      </c>
-      <c r="I18" s="33" t="s">
-        <v>148</v>
-      </c>
-      <c r="J18" s="34" t="s">
-        <v>143</v>
-      </c>
-      <c r="K18" s="34"/>
-      <c r="L18" s="34"/>
-      <c r="M18" s="34" t="s">
-        <v>140</v>
-      </c>
-      <c r="N18" s="38" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="19" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B19" s="32" t="s">
-        <v>7</v>
-      </c>
-      <c r="C19" s="33" t="s">
-        <v>132</v>
-      </c>
-      <c r="D19" s="36" t="s">
-        <v>132</v>
-      </c>
-      <c r="E19" s="36" t="s">
-        <v>132</v>
-      </c>
-      <c r="F19" s="35" t="s">
-        <v>132</v>
-      </c>
-      <c r="H19" s="56" t="s">
-        <v>7</v>
-      </c>
-      <c r="I19" s="33"/>
-      <c r="J19" s="34" t="s">
-        <v>143</v>
-      </c>
-      <c r="K19" s="34" t="s">
-        <v>140</v>
-      </c>
-      <c r="L19" s="34" t="s">
-        <v>143</v>
-      </c>
-      <c r="M19" s="34"/>
-      <c r="N19" s="38"/>
-    </row>
-    <row r="20" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B20" s="32" t="s">
-        <v>82</v>
-      </c>
-      <c r="C20" s="33" t="s">
-        <v>132</v>
-      </c>
-      <c r="D20" s="36" t="s">
-        <v>132</v>
-      </c>
-      <c r="E20" s="36" t="s">
-        <v>132</v>
-      </c>
-      <c r="F20" s="35" t="s">
-        <v>132</v>
-      </c>
-      <c r="H20" s="56" t="s">
-        <v>146</v>
-      </c>
-      <c r="I20" s="33"/>
-      <c r="J20" s="34" t="s">
-        <v>139</v>
-      </c>
-      <c r="K20" s="34" t="s">
-        <v>140</v>
-      </c>
-      <c r="L20" s="34" t="s">
-        <v>143</v>
-      </c>
-      <c r="M20" s="34"/>
-      <c r="N20" s="38"/>
-    </row>
-    <row r="21" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B21" s="32" t="s">
-        <v>6</v>
-      </c>
-      <c r="C21" s="33" t="s">
-        <v>75</v>
-      </c>
-      <c r="D21" s="36" t="s">
-        <v>132</v>
-      </c>
-      <c r="E21" s="36" t="s">
-        <v>132</v>
-      </c>
-      <c r="F21" s="35" t="s">
-        <v>132</v>
-      </c>
-      <c r="H21" s="56" t="s">
-        <v>6</v>
-      </c>
-      <c r="I21" s="33" t="s">
-        <v>139</v>
-      </c>
-      <c r="J21" s="34" t="s">
-        <v>139</v>
-      </c>
-      <c r="K21" s="34" t="s">
-        <v>140</v>
-      </c>
-      <c r="L21" s="34" t="s">
-        <v>143</v>
-      </c>
-      <c r="M21" s="34"/>
-      <c r="N21" s="38"/>
-    </row>
-    <row r="22" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B22" s="32" t="s">
-        <v>96</v>
-      </c>
-      <c r="C22" s="33" t="s">
-        <v>132</v>
-      </c>
-      <c r="D22" s="36" t="s">
-        <v>132</v>
-      </c>
-      <c r="E22" s="36" t="s">
-        <v>132</v>
-      </c>
-      <c r="F22" s="35" t="s">
-        <v>132</v>
-      </c>
-      <c r="H22" s="56" t="s">
-        <v>145</v>
-      </c>
-      <c r="I22" s="33"/>
-      <c r="J22" s="34"/>
-      <c r="K22" s="34"/>
-      <c r="L22" s="34"/>
-      <c r="M22" s="34" t="s">
-        <v>144</v>
-      </c>
-      <c r="N22" s="38" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="23" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B23" s="32" t="s">
-        <v>5</v>
-      </c>
-      <c r="C23" s="33" t="s">
-        <v>75</v>
-      </c>
-      <c r="D23" s="36" t="s">
-        <v>132</v>
-      </c>
-      <c r="E23" s="36" t="s">
-        <v>132</v>
-      </c>
-      <c r="F23" s="35" t="s">
-        <v>132</v>
-      </c>
-      <c r="H23" s="56" t="s">
-        <v>5</v>
-      </c>
-      <c r="I23" s="33" t="s">
-        <v>139</v>
-      </c>
-      <c r="J23" s="34" t="s">
-        <v>143</v>
-      </c>
-      <c r="K23" s="34" t="s">
-        <v>140</v>
-      </c>
-      <c r="L23" s="34" t="s">
-        <v>141</v>
-      </c>
-      <c r="M23" s="34"/>
-      <c r="N23" s="38"/>
-    </row>
-    <row r="24" spans="2:14" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B24" s="46" t="s">
-        <v>108</v>
-      </c>
-      <c r="C24" s="58" t="s">
-        <v>138</v>
-      </c>
-      <c r="D24" s="59"/>
-      <c r="E24" s="59"/>
-      <c r="F24" s="60"/>
-      <c r="H24" s="57" t="s">
-        <v>108</v>
-      </c>
-      <c r="I24" s="58" t="s">
-        <v>138</v>
-      </c>
-      <c r="J24" s="59"/>
-      <c r="K24" s="59"/>
-      <c r="L24" s="59"/>
-      <c r="M24" s="59"/>
-      <c r="N24" s="60"/>
+      <c r="D24" s="144"/>
+      <c r="E24" s="144"/>
+      <c r="F24" s="144"/>
+      <c r="G24" s="144"/>
+      <c r="H24" s="145"/>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="3">
     <mergeCell ref="C14:F14"/>
     <mergeCell ref="I14:L14"/>
-    <mergeCell ref="C24:F24"/>
-    <mergeCell ref="I24:N24"/>
+    <mergeCell ref="C24:H24"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="50" orientation="landscape" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>

--- a/Project 2 Documentation.xlsx
+++ b/Project 2 Documentation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Vengeance\Documents\Revature\Projects\Project 2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54DF61A2-EECC-4349-9EFE-D2F60E973CE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7F861F9-5365-497F-8B89-9E6622A49AFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="480" windowWidth="29040" windowHeight="15840" xr2:uid="{229D6233-47AD-4047-B7D9-0B880510F22D}"/>
   </bookViews>
@@ -1662,23 +1662,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>333375</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>178593</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>357187</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>333375</xdr:colOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>345280</xdr:colOff>
       <xdr:row>44</xdr:row>
-      <xdr:rowOff>54768</xdr:rowOff>
+      <xdr:rowOff>104179</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="Picture 4">
+        <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E922DB6B-960C-4CA3-9D66-19E090E493A7}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A08FBB22-58E5-4AA2-B50D-611BB2330F46}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1700,8 +1700,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="940594" y="178593"/>
-          <a:ext cx="9715500" cy="8258175"/>
+          <a:off x="357187" y="238125"/>
+          <a:ext cx="9703593" cy="8248054"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2894,7 +2894,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="V22" sqref="V22"/>
+      <selection activeCell="W28" sqref="W28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
